--- a/Jogos_do_Dia/2023-08-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>League</t>
   </si>
@@ -148,6 +148,9 @@
     <t>19:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Horn</t>
   </si>
   <si>
@@ -166,12 +169,12 @@
     <t>1860 München</t>
   </si>
   <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>Raków Częstochowa</t>
   </si>
   <si>
-    <t>Rangers</t>
-  </si>
-  <si>
     <t>Royal Antwerp FC</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>Bolívar</t>
   </si>
   <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
     <t>Liefering</t>
   </si>
   <si>
@@ -199,12 +205,12 @@
     <t>VfB Lübeck</t>
   </si>
   <si>
+    <t>PSV</t>
+  </si>
+  <si>
     <t>København</t>
   </si>
   <si>
-    <t>PSV</t>
-  </si>
-  <si>
     <t>AEK Athens</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
   </si>
   <si>
     <t>Internacional</t>
+  </si>
+  <si>
+    <t>Vila Nova</t>
   </si>
 </sst>
 </file>
@@ -573,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,19 +709,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="H2">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="J2">
         <v>1.02</v>
@@ -727,10 +736,10 @@
         <v>4.2</v>
       </c>
       <c r="N2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O2">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P2">
         <v>1.25</v>
@@ -807,19 +816,19 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="I3">
-        <v>2.8</v>
+        <v>2.53</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -834,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O3">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -885,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -914,19 +923,19 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -944,7 +953,7 @@
         <v>1.67</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P4">
         <v>1.33</v>
@@ -983,28 +992,28 @@
         <v>2.99</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1021,19 +1030,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="I5">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1099,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1128,19 +1137,19 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I6">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1155,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O6">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="P6">
         <v>1.33</v>
@@ -1197,28 +1206,28 @@
         <v>2.63</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1235,19 +1244,19 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H7">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="I7">
-        <v>4.75</v>
+        <v>4.79</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1262,10 +1271,10 @@
         <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O7">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P7">
         <v>1.35</v>
@@ -1313,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1342,97 +1351,97 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H8">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>2.31</v>
+        <v>2.6</v>
       </c>
       <c r="J8">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="L8">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>3.82</v>
       </c>
       <c r="N8">
-        <v>2.09</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>1.63</v>
+        <v>2.05</v>
       </c>
       <c r="P8">
+        <v>1.33</v>
+      </c>
+      <c r="Q8">
+        <v>3.16</v>
+      </c>
+      <c r="R8">
+        <v>1.59</v>
+      </c>
+      <c r="S8">
+        <v>2.27</v>
+      </c>
+      <c r="T8">
+        <v>1.53</v>
+      </c>
+      <c r="U8">
+        <v>1.29</v>
+      </c>
+      <c r="V8">
         <v>1.47</v>
       </c>
-      <c r="Q8">
-        <v>2.7</v>
-      </c>
-      <c r="R8">
-        <v>1.87</v>
-      </c>
-      <c r="S8">
-        <v>1.87</v>
-      </c>
-      <c r="T8">
-        <v>1.41</v>
-      </c>
-      <c r="U8">
-        <v>1.33</v>
-      </c>
-      <c r="V8">
-        <v>1.55</v>
-      </c>
       <c r="W8">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>2.19</v>
+      </c>
+      <c r="Z8">
+        <v>2.17</v>
+      </c>
+      <c r="AA8">
+        <v>4.36</v>
+      </c>
+      <c r="AB8">
+        <v>2.15</v>
+      </c>
+      <c r="AC8">
+        <v>7.5</v>
+      </c>
+      <c r="AD8">
         <v>2</v>
       </c>
-      <c r="Y8">
-        <v>1.54</v>
-      </c>
-      <c r="Z8">
-        <v>1.51</v>
-      </c>
-      <c r="AA8">
-        <v>3.05</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG8">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1449,97 +1458,97 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="H9">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="K9">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="L9">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="M9">
-        <v>3.82</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="P9">
+        <v>1.47</v>
+      </c>
+      <c r="Q9">
+        <v>2.7</v>
+      </c>
+      <c r="R9">
+        <v>1.87</v>
+      </c>
+      <c r="S9">
+        <v>1.87</v>
+      </c>
+      <c r="T9">
+        <v>1.41</v>
+      </c>
+      <c r="U9">
         <v>1.33</v>
       </c>
-      <c r="Q9">
-        <v>3.16</v>
-      </c>
-      <c r="R9">
-        <v>1.59</v>
-      </c>
-      <c r="S9">
-        <v>2.27</v>
-      </c>
-      <c r="T9">
-        <v>1.53</v>
-      </c>
-      <c r="U9">
-        <v>1.29</v>
-      </c>
       <c r="V9">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="W9">
+        <v>2.67</v>
+      </c>
+      <c r="X9">
         <v>2</v>
       </c>
-      <c r="X9">
-        <v>3</v>
-      </c>
       <c r="Y9">
-        <v>2.19</v>
+        <v>1.54</v>
       </c>
       <c r="Z9">
-        <v>2.17</v>
+        <v>1.51</v>
       </c>
       <c r="AA9">
-        <v>4.36</v>
+        <v>3.05</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1556,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="H10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -1583,10 +1592,10 @@
         <v>3.8</v>
       </c>
       <c r="N10">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P10">
         <v>1.37</v>
@@ -1625,28 +1634,28 @@
         <v>1.58</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1663,19 +1672,19 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="H11">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3.55</v>
+        <v>4.02</v>
       </c>
       <c r="J11">
         <v>1.12</v>
@@ -1684,13 +1693,13 @@
         <v>5.5</v>
       </c>
       <c r="L11">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M11">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1732,28 +1741,28 @@
         <v>2.96</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1770,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="H12">
-        <v>3.19</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>4.12</v>
+        <v>3.65</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -1797,10 +1806,10 @@
         <v>3.23</v>
       </c>
       <c r="N12">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P12">
         <v>1.44</v>
@@ -1848,7 +1857,7 @@
         <v>3.88</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF12">
         <v>1.3</v>
@@ -1861,6 +1870,113 @@
       </c>
       <c r="AI12">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <v>2.1</v>
+      </c>
+      <c r="H13">
+        <v>2.8</v>
+      </c>
+      <c r="I13">
+        <v>3.6</v>
+      </c>
+      <c r="J13">
+        <v>1.12</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>1.53</v>
+      </c>
+      <c r="M13">
+        <v>2.25</v>
+      </c>
+      <c r="N13">
+        <v>2.65</v>
+      </c>
+      <c r="O13">
+        <v>1.38</v>
+      </c>
+      <c r="P13">
+        <v>1.6</v>
+      </c>
+      <c r="Q13">
+        <v>2.15</v>
+      </c>
+      <c r="R13">
+        <v>2.25</v>
+      </c>
+      <c r="S13">
+        <v>1.57</v>
+      </c>
+      <c r="T13">
+        <v>1.29</v>
+      </c>
+      <c r="U13">
+        <v>1.37</v>
+      </c>
+      <c r="V13">
+        <v>1.62</v>
+      </c>
+      <c r="W13">
+        <v>2.08</v>
+      </c>
+      <c r="X13">
+        <v>1.42</v>
+      </c>
+      <c r="Y13">
+        <v>1.79</v>
+      </c>
+      <c r="Z13">
+        <v>1.56</v>
+      </c>
+      <c r="AA13">
+        <v>3.35</v>
+      </c>
+      <c r="AB13">
+        <v>1.8</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>2.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.14</v>
+      </c>
+      <c r="AF13">
+        <v>1.26</v>
+      </c>
+      <c r="AG13">
+        <v>1.54</v>
+      </c>
+      <c r="AH13">
+        <v>1.95</v>
+      </c>
+      <c r="AI13">
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -715,13 +715,13 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I2">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="J2">
         <v>1.02</v>
@@ -748,10 +748,10 @@
         <v>3.6</v>
       </c>
       <c r="R2">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S2">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
         <v>1.66</v>
@@ -793,10 +793,10 @@
         <v>1.35</v>
       </c>
       <c r="AG2">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="AH2">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <v>2.64</v>
@@ -822,13 +822,13 @@
         <v>58</v>
       </c>
       <c r="G3">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H3">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O3">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -885,13 +885,13 @@
         <v>3.12</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE3">
         <v>1.18</v>
@@ -929,10 +929,10 @@
         <v>59</v>
       </c>
       <c r="G4">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I4">
         <v>4.4</v>
@@ -950,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O4">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="P4">
         <v>1.33</v>
@@ -1036,13 +1036,13 @@
         <v>60</v>
       </c>
       <c r="G5">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="I5">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1057,10 +1057,10 @@
         <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O5">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="P5">
         <v>1.35</v>
@@ -1099,13 +1099,13 @@
         <v>2.44</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE5">
         <v>1.2</v>
@@ -1143,13 +1143,13 @@
         <v>61</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H6">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I6">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1250,13 +1250,13 @@
         <v>62</v>
       </c>
       <c r="G7">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H7">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="I7">
-        <v>4.79</v>
+        <v>4.6</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1271,10 +1271,10 @@
         <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="P7">
         <v>1.35</v>
@@ -1313,13 +1313,13 @@
         <v>1.72</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE7">
         <v>1.18</v>
@@ -1357,13 +1357,13 @@
         <v>63</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>3.82</v>
       </c>
       <c r="N8">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P8">
         <v>1.33</v>
@@ -1464,13 +1464,13 @@
         <v>64</v>
       </c>
       <c r="G9">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="J9">
         <v>1.07</v>
@@ -1485,10 +1485,10 @@
         <v>3.1</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="P9">
         <v>1.47</v>
@@ -1574,10 +1574,10 @@
         <v>2.15</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -1592,10 +1592,10 @@
         <v>3.8</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O10">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="P10">
         <v>1.37</v>
@@ -1678,13 +1678,13 @@
         <v>66</v>
       </c>
       <c r="G11">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4.02</v>
+        <v>3.75</v>
       </c>
       <c r="J11">
         <v>1.12</v>
@@ -1693,10 +1693,10 @@
         <v>5.5</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="N11">
         <v>2.73</v>
@@ -1788,10 +1788,10 @@
         <v>1.81</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="I12">
-        <v>3.65</v>
+        <v>3.88</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -1806,10 +1806,10 @@
         <v>3.23</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="O12">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P12">
         <v>1.44</v>
@@ -1892,13 +1892,13 @@
         <v>68</v>
       </c>
       <c r="G13">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="H13">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J13">
         <v>1.12</v>
@@ -1907,16 +1907,16 @@
         <v>6</v>
       </c>
       <c r="L13">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M13">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="N13">
         <v>2.65</v>
       </c>
       <c r="O13">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P13">
         <v>1.6</v>
